--- a/Estudiantes.xlsx
+++ b/Estudiantes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5790b98aacd26392/Documentos/CUC/Charla/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5790b98aacd26392/Documentos/CUC/Charla/Superpoderes-para-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_D27EFED54849ECE6F6160BFC535FCA15502CA85B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FE4827-632E-4ED5-9390-5EA117071030}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_D27EFED54849ECE6F6160BFC535FCA15502CA85B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB0FF8B-14CF-42DA-AD62-5B10249A20D6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -693,12 +693,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,6 +713,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,14 +1008,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
     <col min="3" max="3" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1031,7 +1034,7 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>577320801</v>
       </c>
       <c r="C2" t="s">
@@ -1042,7 +1045,7 @@
       <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>252117596</v>
       </c>
       <c r="C3" t="s">
@@ -1053,7 +1056,7 @@
       <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>564308178</v>
       </c>
       <c r="C4" t="s">
@@ -1064,7 +1067,7 @@
       <c r="A5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>652972664</v>
       </c>
       <c r="C5" t="s">
@@ -1075,7 +1078,7 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>872908117</v>
       </c>
       <c r="C6" t="s">
@@ -1086,7 +1089,7 @@
       <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>237057121</v>
       </c>
       <c r="C7" t="s">
@@ -1097,7 +1100,7 @@
       <c r="A8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>229443369</v>
       </c>
       <c r="C8" t="s">
@@ -1108,7 +1111,7 @@
       <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>885705215</v>
       </c>
       <c r="C9" t="s">
@@ -1119,7 +1122,7 @@
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>554402224</v>
       </c>
       <c r="C10" t="s">
@@ -1130,7 +1133,7 @@
       <c r="A11" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>712906255</v>
       </c>
       <c r="C11" t="s">
@@ -1141,7 +1144,7 @@
       <c r="A12" t="s">
         <v>153</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>512077060</v>
       </c>
       <c r="C12" t="s">
@@ -1152,7 +1155,7 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>698956974</v>
       </c>
       <c r="C13" t="s">
@@ -1163,7 +1166,7 @@
       <c r="A14" t="s">
         <v>151</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>439349584</v>
       </c>
       <c r="C14" t="s">
@@ -1174,7 +1177,7 @@
       <c r="A15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>695546287</v>
       </c>
       <c r="C15" t="s">
@@ -1185,7 +1188,7 @@
       <c r="A16" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>299058477</v>
       </c>
       <c r="C16" t="s">
@@ -1196,7 +1199,7 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>815845785</v>
       </c>
       <c r="C17" t="s">
@@ -1207,7 +1210,7 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>876151827</v>
       </c>
       <c r="C18" t="s">
@@ -1218,7 +1221,7 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>154239444</v>
       </c>
       <c r="C19" t="s">
@@ -1229,7 +1232,7 @@
       <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>620375183</v>
       </c>
       <c r="C20" t="s">
@@ -1240,7 +1243,7 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>235690694</v>
       </c>
       <c r="C21" t="s">
@@ -1251,7 +1254,7 @@
       <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>852343689</v>
       </c>
       <c r="C22" t="s">
@@ -1262,7 +1265,7 @@
       <c r="A23" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>324981387</v>
       </c>
       <c r="C23" t="s">
@@ -1273,7 +1276,7 @@
       <c r="A24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>748289347</v>
       </c>
       <c r="C24" t="s">
@@ -1284,7 +1287,7 @@
       <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>520654167</v>
       </c>
       <c r="C25" t="s">
@@ -1295,7 +1298,7 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>720067315</v>
       </c>
       <c r="C26" t="s">
@@ -1306,7 +1309,7 @@
       <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>158098060</v>
       </c>
       <c r="C27" t="s">
@@ -1317,7 +1320,7 @@
       <c r="A28" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>773520737</v>
       </c>
       <c r="C28" t="s">
@@ -1328,7 +1331,7 @@
       <c r="A29" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>926910476</v>
       </c>
       <c r="C29" t="s">
@@ -1339,7 +1342,7 @@
       <c r="A30" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>225531385</v>
       </c>
       <c r="C30" t="s">
@@ -1350,7 +1353,7 @@
       <c r="A31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>962541586</v>
       </c>
       <c r="C31" t="s">
@@ -1361,7 +1364,7 @@
       <c r="A32" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>332458543</v>
       </c>
       <c r="C32" t="s">
@@ -1372,7 +1375,7 @@
       <c r="A33" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>659417954</v>
       </c>
       <c r="C33" t="s">
@@ -1383,7 +1386,7 @@
       <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>585227475</v>
       </c>
       <c r="C34" t="s">
@@ -1394,7 +1397,7 @@
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>369525335</v>
       </c>
       <c r="C35" t="s">
@@ -1405,7 +1408,7 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>264912723</v>
       </c>
       <c r="C36" t="s">
@@ -1416,7 +1419,7 @@
       <c r="A37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>298943915</v>
       </c>
       <c r="C37" t="s">
@@ -1427,7 +1430,7 @@
       <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>754543389</v>
       </c>
       <c r="C38" t="s">
@@ -1438,7 +1441,7 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>883916422</v>
       </c>
       <c r="C39" t="s">
@@ -1449,7 +1452,7 @@
       <c r="A40" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>321721681</v>
       </c>
       <c r="C40" t="s">
@@ -1460,7 +1463,7 @@
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>338137364</v>
       </c>
       <c r="C41" t="s">
@@ -1471,7 +1474,7 @@
       <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>846329772</v>
       </c>
       <c r="C42" t="s">
@@ -1482,7 +1485,7 @@
       <c r="A43" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>158329420</v>
       </c>
       <c r="C43" t="s">
@@ -1493,7 +1496,7 @@
       <c r="A44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>390600177</v>
       </c>
       <c r="C44" t="s">
@@ -1504,7 +1507,7 @@
       <c r="A45" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>383089174</v>
       </c>
       <c r="C45" t="s">
@@ -1515,7 +1518,7 @@
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>384597692</v>
       </c>
       <c r="C46" t="s">
@@ -1526,7 +1529,7 @@
       <c r="A47" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>276939953</v>
       </c>
       <c r="C47" t="s">
@@ -1537,7 +1540,7 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>481285428</v>
       </c>
       <c r="C48" t="s">
@@ -1548,7 +1551,7 @@
       <c r="A49" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>193781439</v>
       </c>
       <c r="C49" t="s">
@@ -1559,7 +1562,7 @@
       <c r="A50" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>960089056</v>
       </c>
       <c r="C50" t="s">
@@ -1570,7 +1573,7 @@
       <c r="A51" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>747069476</v>
       </c>
       <c r="C51" t="s">
@@ -1581,7 +1584,7 @@
       <c r="A52" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>524033622</v>
       </c>
       <c r="C52" t="s">
@@ -1592,7 +1595,7 @@
       <c r="A53" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>188557535</v>
       </c>
       <c r="C53" t="s">
@@ -1603,7 +1606,7 @@
       <c r="A54" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>762008416</v>
       </c>
       <c r="C54" t="s">
@@ -1614,7 +1617,7 @@
       <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>818377855</v>
       </c>
       <c r="C55" t="s">
@@ -1625,7 +1628,7 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>818442920</v>
       </c>
       <c r="C56" t="s">
@@ -1636,7 +1639,7 @@
       <c r="A57" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>384464588</v>
       </c>
       <c r="C57" t="s">
@@ -1647,7 +1650,7 @@
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>489788642</v>
       </c>
       <c r="C58" t="s">
@@ -1658,7 +1661,7 @@
       <c r="A59" t="s">
         <v>115</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>593959012</v>
       </c>
       <c r="C59" t="s">
@@ -1669,7 +1672,7 @@
       <c r="A60" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>160327320</v>
       </c>
       <c r="C60" t="s">
@@ -1680,7 +1683,7 @@
       <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>835998311</v>
       </c>
       <c r="C61" t="s">
@@ -1691,7 +1694,7 @@
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>636608599</v>
       </c>
       <c r="C62" t="s">
@@ -1702,7 +1705,7 @@
       <c r="A63" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>781871383</v>
       </c>
       <c r="C63" t="s">
@@ -1713,7 +1716,7 @@
       <c r="A64" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>279298189</v>
       </c>
       <c r="C64" t="s">
@@ -1724,7 +1727,7 @@
       <c r="A65" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>996078586</v>
       </c>
       <c r="C65" t="s">
@@ -1735,7 +1738,7 @@
       <c r="A66" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>181279104</v>
       </c>
       <c r="C66" t="s">
@@ -1746,7 +1749,7 @@
       <c r="A67" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>549443391</v>
       </c>
       <c r="C67" t="s">
@@ -1757,7 +1760,7 @@
       <c r="A68" t="s">
         <v>133</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>572708142</v>
       </c>
       <c r="C68" t="s">
@@ -1768,7 +1771,7 @@
       <c r="A69" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>690794435</v>
       </c>
       <c r="C69" t="s">
@@ -1779,7 +1782,7 @@
       <c r="A70" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>516142839</v>
       </c>
       <c r="C70" t="s">
@@ -1790,7 +1793,7 @@
       <c r="A71" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>994041615</v>
       </c>
       <c r="C71" t="s">
@@ -1801,7 +1804,7 @@
       <c r="A72" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>997648537</v>
       </c>
       <c r="C72" t="s">
@@ -1812,7 +1815,7 @@
       <c r="A73" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>260197912</v>
       </c>
       <c r="C73" t="s">
@@ -1823,7 +1826,7 @@
       <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>366149627</v>
       </c>
       <c r="C74" t="s">
@@ -1834,7 +1837,7 @@
       <c r="A75" t="s">
         <v>119</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>455205146</v>
       </c>
       <c r="C75" t="s">
@@ -1845,7 +1848,7 @@
       <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>796331778</v>
       </c>
       <c r="C76" t="s">
@@ -1856,7 +1859,7 @@
       <c r="A77" t="s">
         <v>43</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>253166193</v>
       </c>
       <c r="C77" t="s">
@@ -1867,7 +1870,7 @@
       <c r="A78" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>285071711</v>
       </c>
       <c r="C78" t="s">
@@ -1878,7 +1881,7 @@
       <c r="A79" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>480038298</v>
       </c>
       <c r="C79" t="s">
@@ -1889,7 +1892,7 @@
       <c r="A80" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>142722284</v>
       </c>
       <c r="C80" t="s">
@@ -1900,7 +1903,7 @@
       <c r="A81" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>686580748</v>
       </c>
       <c r="C81" t="s">
@@ -1911,7 +1914,7 @@
       <c r="A82" t="s">
         <v>155</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>650883026</v>
       </c>
       <c r="C82" t="s">
@@ -1922,7 +1925,7 @@
       <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>868293580</v>
       </c>
       <c r="C83" t="s">
@@ -1933,7 +1936,7 @@
       <c r="A84" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>526349322</v>
       </c>
       <c r="C84" t="s">
@@ -1944,7 +1947,7 @@
       <c r="A85" t="s">
         <v>192</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>469231754</v>
       </c>
       <c r="C85" t="s">
@@ -1955,7 +1958,7 @@
       <c r="A86" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>439223733</v>
       </c>
       <c r="C86" t="s">
@@ -1966,7 +1969,7 @@
       <c r="A87" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>110593974</v>
       </c>
       <c r="C87" t="s">
@@ -1977,7 +1980,7 @@
       <c r="A88" t="s">
         <v>50</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>460726522</v>
       </c>
       <c r="C88" t="s">
@@ -1988,7 +1991,7 @@
       <c r="A89" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>949463119</v>
       </c>
       <c r="C89" t="s">
@@ -1999,7 +2002,7 @@
       <c r="A90" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>948507665</v>
       </c>
       <c r="C90" t="s">
@@ -2010,7 +2013,7 @@
       <c r="A91" t="s">
         <v>199</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>687358796</v>
       </c>
       <c r="C91" t="s">
@@ -2021,7 +2024,7 @@
       <c r="A92" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>832063340</v>
       </c>
       <c r="C92" t="s">
@@ -2032,7 +2035,7 @@
       <c r="A93" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>213624276</v>
       </c>
       <c r="C93" t="s">
@@ -2043,7 +2046,7 @@
       <c r="A94" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>816383887</v>
       </c>
       <c r="C94" t="s">
@@ -2054,7 +2057,7 @@
       <c r="A95" t="s">
         <v>174</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>174683006</v>
       </c>
       <c r="C95" t="s">
@@ -2065,7 +2068,7 @@
       <c r="A96" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>820391332</v>
       </c>
       <c r="C96" t="s">
@@ -2076,7 +2079,7 @@
       <c r="A97" t="s">
         <v>56</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>685438592</v>
       </c>
       <c r="C97" t="s">
@@ -2087,7 +2090,7 @@
       <c r="A98" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>281770422</v>
       </c>
       <c r="C98" t="s">
@@ -2098,7 +2101,7 @@
       <c r="A99" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>318751704</v>
       </c>
       <c r="C99" t="s">
@@ -2109,7 +2112,7 @@
       <c r="A100" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>285895296</v>
       </c>
       <c r="C100" t="s">
@@ -2120,7 +2123,7 @@
       <c r="A101" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>183944090</v>
       </c>
       <c r="C101" t="s">
@@ -2131,7 +2134,7 @@
       <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>379977664</v>
       </c>
       <c r="C102" t="s">
@@ -2142,7 +2145,7 @@
       <c r="A103" t="s">
         <v>196</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>485124271</v>
       </c>
       <c r="C103" t="s">
@@ -2153,7 +2156,7 @@
       <c r="A104" t="s">
         <v>136</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>255831941</v>
       </c>
       <c r="C104" t="s">
@@ -2164,7 +2167,7 @@
       <c r="A105" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>877660592</v>
       </c>
       <c r="C105" t="s">
@@ -2175,7 +2178,7 @@
       <c r="A106" t="s">
         <v>138</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>677667534</v>
       </c>
       <c r="C106" t="s">
@@ -2186,7 +2189,7 @@
       <c r="A107" t="s">
         <v>66</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>565245737</v>
       </c>
       <c r="C107" t="s">
@@ -2197,7 +2200,7 @@
       <c r="A108" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>239738758</v>
       </c>
       <c r="C108" t="s">
@@ -2208,7 +2211,7 @@
       <c r="A109" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>355501780</v>
       </c>
       <c r="C109" t="s">
@@ -2219,7 +2222,7 @@
       <c r="A110" t="s">
         <v>40</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>856222177</v>
       </c>
       <c r="C110" t="s">
@@ -2230,7 +2233,7 @@
       <c r="A111" t="s">
         <v>182</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>647234300</v>
       </c>
       <c r="C111" t="s">
@@ -2241,7 +2244,7 @@
       <c r="A112" t="s">
         <v>167</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>987635466</v>
       </c>
       <c r="C112" t="s">
@@ -2252,7 +2255,7 @@
       <c r="A113" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>275218103</v>
       </c>
       <c r="C113" t="s">
@@ -2263,7 +2266,7 @@
       <c r="A114" t="s">
         <v>126</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>220392269</v>
       </c>
       <c r="C114" t="s">
@@ -2274,7 +2277,7 @@
       <c r="A115" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>123026253</v>
       </c>
       <c r="C115" t="s">
@@ -2285,7 +2288,7 @@
       <c r="A116" t="s">
         <v>154</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>688211475</v>
       </c>
       <c r="C116" t="s">
@@ -2296,7 +2299,7 @@
       <c r="A117" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>294482152</v>
       </c>
       <c r="C117" t="s">
@@ -2307,7 +2310,7 @@
       <c r="A118" t="s">
         <v>197</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>678196956</v>
       </c>
       <c r="C118" t="s">
@@ -2318,7 +2321,7 @@
       <c r="A119" t="s">
         <v>102</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>612624047</v>
       </c>
       <c r="C119" t="s">
@@ -2329,7 +2332,7 @@
       <c r="A120" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>915285693</v>
       </c>
       <c r="C120" t="s">
@@ -2340,7 +2343,7 @@
       <c r="A121" t="s">
         <v>112</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>994235584</v>
       </c>
       <c r="C121" t="s">
@@ -2351,7 +2354,7 @@
       <c r="A122" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>130488684</v>
       </c>
       <c r="C122" t="s">
@@ -2362,7 +2365,7 @@
       <c r="A123" t="s">
         <v>176</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>461641479</v>
       </c>
       <c r="C123" t="s">
@@ -2373,7 +2376,7 @@
       <c r="A124" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>251593251</v>
       </c>
       <c r="C124" t="s">
@@ -2384,7 +2387,7 @@
       <c r="A125" t="s">
         <v>201</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>514041154</v>
       </c>
       <c r="C125" t="s">
@@ -2395,7 +2398,7 @@
       <c r="A126" t="s">
         <v>120</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>693075952</v>
       </c>
       <c r="C126" t="s">
@@ -2406,7 +2409,7 @@
       <c r="A127" t="s">
         <v>162</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>763829019</v>
       </c>
       <c r="C127" t="s">
@@ -2417,7 +2420,7 @@
       <c r="A128" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>430450336</v>
       </c>
       <c r="C128" t="s">
@@ -2428,7 +2431,7 @@
       <c r="A129" t="s">
         <v>116</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>994502845</v>
       </c>
       <c r="C129" t="s">
@@ -2439,7 +2442,7 @@
       <c r="A130" t="s">
         <v>70</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>913653642</v>
       </c>
       <c r="C130" t="s">
@@ -2450,7 +2453,7 @@
       <c r="A131" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>166447678</v>
       </c>
       <c r="C131" t="s">
@@ -2461,7 +2464,7 @@
       <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>833263053</v>
       </c>
       <c r="C132" t="s">
@@ -2472,7 +2475,7 @@
       <c r="A133" t="s">
         <v>181</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>354329377</v>
       </c>
       <c r="C133" t="s">
@@ -2483,7 +2486,7 @@
       <c r="A134" t="s">
         <v>86</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>440579443</v>
       </c>
       <c r="C134" t="s">
@@ -2494,7 +2497,7 @@
       <c r="A135" t="s">
         <v>92</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>871547052</v>
       </c>
       <c r="C135" t="s">
@@ -2505,7 +2508,7 @@
       <c r="A136" t="s">
         <v>189</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>998995905</v>
       </c>
       <c r="C136" t="s">
@@ -2516,7 +2519,7 @@
       <c r="A137" t="s">
         <v>190</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>998703832</v>
       </c>
       <c r="C137" t="s">
@@ -2527,7 +2530,7 @@
       <c r="A138" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>285546358</v>
       </c>
       <c r="C138" t="s">
@@ -2538,7 +2541,7 @@
       <c r="A139" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>680351468</v>
       </c>
       <c r="C139" t="s">
@@ -2549,7 +2552,7 @@
       <c r="A140" t="s">
         <v>90</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>110583762</v>
       </c>
       <c r="C140" t="s">
@@ -2560,7 +2563,7 @@
       <c r="A141" t="s">
         <v>34</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>898032718</v>
       </c>
       <c r="C141" t="s">
@@ -2571,7 +2574,7 @@
       <c r="A142" t="s">
         <v>128</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>497959244</v>
       </c>
       <c r="C142" t="s">
@@ -2582,7 +2585,7 @@
       <c r="A143" t="s">
         <v>68</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>322789179</v>
       </c>
       <c r="C143" t="s">
@@ -2593,7 +2596,7 @@
       <c r="A144" t="s">
         <v>98</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>198862468</v>
       </c>
       <c r="C144" t="s">
@@ -2604,7 +2607,7 @@
       <c r="A145" t="s">
         <v>152</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>122268132</v>
       </c>
       <c r="C145" t="s">
@@ -2615,7 +2618,7 @@
       <c r="A146" t="s">
         <v>54</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>854858818</v>
       </c>
       <c r="C146" t="s">
@@ -2626,7 +2629,7 @@
       <c r="A147" t="s">
         <v>104</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>373424553</v>
       </c>
       <c r="C147" t="s">
@@ -2637,7 +2640,7 @@
       <c r="A148" t="s">
         <v>166</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>262036988</v>
       </c>
       <c r="C148" t="s">
@@ -2648,7 +2651,7 @@
       <c r="A149" t="s">
         <v>122</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>193082029</v>
       </c>
       <c r="C149" t="s">
@@ -2659,7 +2662,7 @@
       <c r="A150" t="s">
         <v>22</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>732817855</v>
       </c>
       <c r="C150" t="s">
@@ -2670,7 +2673,7 @@
       <c r="A151" t="s">
         <v>108</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>811793856</v>
       </c>
       <c r="C151" t="s">
@@ -2681,7 +2684,7 @@
       <c r="A152" t="s">
         <v>191</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>727629584</v>
       </c>
       <c r="C152" t="s">
@@ -2692,7 +2695,7 @@
       <c r="A153" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>778212672</v>
       </c>
       <c r="C153" t="s">
@@ -2703,7 +2706,7 @@
       <c r="A154" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>331826743</v>
       </c>
       <c r="C154" t="s">
@@ -2714,7 +2717,7 @@
       <c r="A155" t="s">
         <v>169</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>512776902</v>
       </c>
       <c r="C155" t="s">
@@ -2725,7 +2728,7 @@
       <c r="A156" t="s">
         <v>58</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>687514677</v>
       </c>
       <c r="C156" t="s">
@@ -2736,7 +2739,7 @@
       <c r="A157" t="s">
         <v>100</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>316166141</v>
       </c>
       <c r="C157" t="s">
@@ -2747,7 +2750,7 @@
       <c r="A158" t="s">
         <v>160</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>577616027</v>
       </c>
       <c r="C158" t="s">
@@ -2758,7 +2761,7 @@
       <c r="A159" t="s">
         <v>178</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>474328512</v>
       </c>
       <c r="C159" t="s">
@@ -2769,7 +2772,7 @@
       <c r="A160" t="s">
         <v>173</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>166365445</v>
       </c>
       <c r="C160" t="s">
@@ -2780,7 +2783,7 @@
       <c r="A161" t="s">
         <v>144</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>519048320</v>
       </c>
       <c r="C161" t="s">
@@ -2791,7 +2794,7 @@
       <c r="A162" t="s">
         <v>124</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>141192031</v>
       </c>
       <c r="C162" t="s">
@@ -2802,7 +2805,7 @@
       <c r="A163" t="s">
         <v>62</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>270287980</v>
       </c>
       <c r="C163" t="s">
@@ -2813,7 +2816,7 @@
       <c r="A164" t="s">
         <v>168</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>944086382</v>
       </c>
       <c r="C164" t="s">
@@ -2824,7 +2827,7 @@
       <c r="A165" t="s">
         <v>200</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>834027893</v>
       </c>
       <c r="C165" t="s">
@@ -2835,7 +2838,7 @@
       <c r="A166" t="s">
         <v>10</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>491139159</v>
       </c>
       <c r="C166" t="s">
@@ -2846,7 +2849,7 @@
       <c r="A167" t="s">
         <v>46</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>885931018</v>
       </c>
       <c r="C167" t="s">
@@ -2857,7 +2860,7 @@
       <c r="A168" t="s">
         <v>202</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>780144139</v>
       </c>
       <c r="C168" t="s">
@@ -2868,7 +2871,7 @@
       <c r="A169" t="s">
         <v>36</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>522273315</v>
       </c>
       <c r="C169" t="s">
@@ -2879,7 +2882,7 @@
       <c r="A170" t="s">
         <v>164</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>315619471</v>
       </c>
       <c r="C170" t="s">
@@ -2890,7 +2893,7 @@
       <c r="A171" t="s">
         <v>193</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>637336265</v>
       </c>
       <c r="C171" t="s">
@@ -2901,7 +2904,7 @@
       <c r="A172" t="s">
         <v>187</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>573870016</v>
       </c>
       <c r="C172" t="s">
@@ -2912,7 +2915,7 @@
       <c r="A173" t="s">
         <v>76</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>737608185</v>
       </c>
       <c r="C173" t="s">
@@ -2923,7 +2926,7 @@
       <c r="A174" t="s">
         <v>80</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>185984413</v>
       </c>
       <c r="C174" t="s">
@@ -2934,7 +2937,7 @@
       <c r="A175" t="s">
         <v>156</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>684777952</v>
       </c>
       <c r="C175" t="s">
@@ -2945,7 +2948,7 @@
       <c r="A176" t="s">
         <v>28</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>435045684</v>
       </c>
       <c r="C176" t="s">
@@ -2956,7 +2959,7 @@
       <c r="A177" t="s">
         <v>88</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>981752256</v>
       </c>
       <c r="C177" t="s">
@@ -2967,7 +2970,7 @@
       <c r="A178" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>338787439</v>
       </c>
       <c r="C178" t="s">
@@ -2978,7 +2981,7 @@
       <c r="A179" t="s">
         <v>44</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>654814864</v>
       </c>
       <c r="C179" t="s">
@@ -2989,7 +2992,7 @@
       <c r="A180" t="s">
         <v>74</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>578369118</v>
       </c>
       <c r="C180" t="s">
@@ -3000,7 +3003,7 @@
       <c r="A181" t="s">
         <v>42</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>920738013</v>
       </c>
       <c r="C181" t="s">
@@ -3011,7 +3014,7 @@
       <c r="A182" t="s">
         <v>114</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>363238343</v>
       </c>
       <c r="C182" t="s">
@@ -3022,7 +3025,7 @@
       <c r="A183" t="s">
         <v>184</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>688701773</v>
       </c>
       <c r="C183" t="s">
@@ -3033,7 +3036,7 @@
       <c r="A184" t="s">
         <v>177</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>673875968</v>
       </c>
       <c r="C184" t="s">
@@ -3044,7 +3047,7 @@
       <c r="A185" t="s">
         <v>180</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>240207427</v>
       </c>
       <c r="C185" t="s">
@@ -3055,7 +3058,7 @@
       <c r="A186" t="s">
         <v>179</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>454944119</v>
       </c>
       <c r="C186" t="s">
@@ -3066,7 +3069,7 @@
       <c r="A187" t="s">
         <v>140</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>768212711</v>
       </c>
       <c r="C187" t="s">
@@ -3077,7 +3080,7 @@
       <c r="A188" t="s">
         <v>96</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>313232595</v>
       </c>
       <c r="C188" t="s">
@@ -3088,7 +3091,7 @@
       <c r="A189" t="s">
         <v>82</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>869752917</v>
       </c>
       <c r="C189" t="s">
@@ -3099,7 +3102,7 @@
       <c r="A190" t="s">
         <v>60</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>555536100</v>
       </c>
       <c r="C190" t="s">
@@ -3110,7 +3113,7 @@
       <c r="A191" t="s">
         <v>12</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>137941332</v>
       </c>
       <c r="C191" t="s">
@@ -3121,7 +3124,7 @@
       <c r="A192" t="s">
         <v>194</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>620115566</v>
       </c>
       <c r="C192" t="s">
@@ -3132,7 +3135,7 @@
       <c r="A193" t="s">
         <v>170</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>268217648</v>
       </c>
       <c r="C193" t="s">
@@ -3143,7 +3146,7 @@
       <c r="A194" t="s">
         <v>84</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>886683466</v>
       </c>
       <c r="C194" t="s">
@@ -3154,7 +3157,7 @@
       <c r="A195" t="s">
         <v>94</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>435004408</v>
       </c>
       <c r="C195" t="s">
@@ -3165,7 +3168,7 @@
       <c r="A196" t="s">
         <v>186</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>655477696</v>
       </c>
       <c r="C196" t="s">
@@ -3176,7 +3179,7 @@
       <c r="A197" t="s">
         <v>132</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>337332930</v>
       </c>
       <c r="C197" t="s">
@@ -3187,7 +3190,7 @@
       <c r="A198" t="s">
         <v>6</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>147078099</v>
       </c>
       <c r="C198" t="s">
@@ -3198,7 +3201,7 @@
       <c r="A199" t="s">
         <v>52</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>238245094</v>
       </c>
       <c r="C199" t="s">
@@ -3209,7 +3212,7 @@
       <c r="A200" t="s">
         <v>188</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>965535356</v>
       </c>
       <c r="C200" t="s">
@@ -3220,7 +3223,7 @@
       <c r="A201" t="s">
         <v>195</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>255153784</v>
       </c>
       <c r="C201" t="s">
